--- a/移行シェル説明手順.xlsx
+++ b/移行シェル説明手順.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhenghegong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8888DB3D-38A9-4072-BF91-A010EFACE3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3848A8E4-82C0-43FB-961F-A40301B29D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{718869CB-C289-4EEB-A2F6-39DAC559FE97}"/>
   </bookViews>
   <sheets>
-    <sheet name="流れ" sheetId="1" r:id="rId1"/>
+    <sheet name="全体流れ" sheetId="1" r:id="rId1"/>
+    <sheet name="63操作手順" sheetId="2" r:id="rId2"/>
+    <sheet name="65操作手順" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -125,12 +127,201 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>①データを準備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ZIPを作る・AEM6.3にアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ビルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤S3にアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ダウンロードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④AEM6.5にアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤AEM6.5にインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>63の設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2、config.ini設定すること</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1、コマンド確認すること</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curl, zip, xmllint, pwd, mkdir, touch, cat, sed, grep, awk, rm, aws</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部コマンド：</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip, xmllint, aws, curl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールが必要な場合がある：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3、コマンド実行すること</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bash ./convert_63.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の設定</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crontab -e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3、crontab操作</t>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*/1 * * * * bash /xxx/xxx/convert_65.sh &gt;&gt; /xxx/xxx/crontab.log 2&gt;&amp;1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※パースを設定すること</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bash /xxx/xxx/convert_65.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/xxx/xxx/crontab.log 2&gt;&amp;1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※実行するシェル</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※シェルログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crontab -l</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※crontabを設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※crontabを検査</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +386,61 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +472,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,13 +525,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -326,13 +593,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -394,13 +661,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -462,13 +729,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -530,13 +797,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -598,13 +865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -666,13 +933,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -734,13 +1001,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -802,13 +1069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -870,13 +1137,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -938,13 +1205,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1006,13 +1273,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1149,13 +1416,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1205,13 +1472,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1271,13 +1538,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1327,13 +1594,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1417,13 +1684,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1624,13 +1891,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1680,13 +1947,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1760,13 +2027,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1816,13 +2083,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1912,13 +2179,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1968,7 +2235,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -2026,13 +2293,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2133,13 +2400,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>200978</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2189,13 +2456,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2279,13 +2546,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2375,13 +2642,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2431,13 +2698,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2499,13 +2766,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2555,13 +2822,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>376238</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2613,7 +2880,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -2671,7 +2938,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -2729,13 +2996,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>147639</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2787,13 +3054,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2843,7 +3110,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1221232" cy="306879"/>
@@ -2905,7 +3172,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
@@ -2963,13 +3230,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3077,13 +3344,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3133,13 +3400,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3206,13 +3473,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3279,7 +3546,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2149306" cy="264047"/>
@@ -3345,13 +3612,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3452,13 +3719,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3529,13 +3796,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3586,13 +3853,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3643,7 +3910,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2587888" cy="264047"/>
@@ -3709,13 +3976,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3777,13 +4044,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128589</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3834,13 +4101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3907,13 +4174,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3980,13 +4247,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4038,13 +4305,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4095,13 +4362,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4250,13 +4517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4327,13 +4594,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4384,13 +4651,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4406,7 +4673,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2295526" y="13868401"/>
+          <a:off x="2295526" y="15059026"/>
           <a:ext cx="2152649" cy="533400"/>
           <a:chOff x="2295526" y="13868401"/>
           <a:chExt cx="2152649" cy="533400"/>
@@ -4505,7 +4772,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1841530" cy="264047"/>
@@ -4571,13 +4838,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633413</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4628,13 +4895,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4735,13 +5002,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4792,7 +5059,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2587888" cy="264047"/>
@@ -4858,13 +5125,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4926,13 +5193,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4999,13 +5266,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5072,13 +5339,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5129,13 +5396,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5187,13 +5454,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5244,7 +5511,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5302,7 +5569,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5360,13 +5627,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5515,13 +5782,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633413</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5572,13 +5839,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5594,7 +5861,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6429375" y="16916401"/>
+          <a:off x="6429375" y="18107026"/>
           <a:ext cx="2228850" cy="466725"/>
           <a:chOff x="6429375" y="16916401"/>
           <a:chExt cx="2228850" cy="466725"/>
@@ -5693,7 +5960,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5751,7 +6018,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5809,13 +6076,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5886,7 +6153,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2149306" cy="264047"/>
@@ -5952,13 +6219,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6059,13 +6326,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6116,13 +6383,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>252414</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6176,7 +6443,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3097386" cy="264047"/>
@@ -6250,13 +6517,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6318,13 +6585,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6391,13 +6658,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6464,13 +6731,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6592,13 +6859,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6653,13 +6920,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6713,13 +6980,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6735,7 +7002,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2409826" y="19745325"/>
+          <a:off x="2409826" y="20935950"/>
           <a:ext cx="2047874" cy="552450"/>
           <a:chOff x="2409826" y="19745325"/>
           <a:chExt cx="2047874" cy="552450"/>
@@ -6840,13 +7107,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6901,13 +7168,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6958,7 +7225,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -7016,7 +7283,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -7074,13 +7341,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7151,7 +7418,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1636345" cy="435760"/>
@@ -7224,13 +7491,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7290,13 +7557,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7347,7 +7614,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1620957" cy="435697"/>
@@ -7409,7 +7676,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3151504" cy="392800"/>
@@ -7503,7 +7770,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1006238" cy="435697"/>
@@ -7573,7 +7840,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005403" cy="435697"/>
@@ -7635,7 +7902,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1620957" cy="435697"/>
@@ -7697,7 +7964,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2027158" cy="435697"/>
@@ -7775,13 +8042,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7835,13 +8102,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7910,13 +8177,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7976,13 +8243,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8119,13 +8386,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8209,13 +8476,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8265,13 +8532,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8472,13 +8739,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8528,13 +8795,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8608,7 +8875,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="564514"/>
@@ -8685,13 +8952,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8707,7 +8974,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6438901" y="9696450"/>
+          <a:off x="6438901" y="10887075"/>
           <a:ext cx="2333625" cy="1690688"/>
           <a:chOff x="6438901" y="8743950"/>
           <a:chExt cx="2333625" cy="1690688"/>
@@ -8808,13 +9075,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8904,13 +9171,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8960,7 +9227,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -9018,13 +9285,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9076,7 +9343,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
@@ -9134,7 +9401,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
@@ -9192,13 +9459,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9265,13 +9532,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9411,7 +9678,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -9469,7 +9736,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -9527,7 +9794,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1736373" cy="328423"/>
@@ -9585,13 +9852,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9653,13 +9920,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9709,13 +9976,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9765,13 +10032,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9821,7 +10088,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -9879,13 +10146,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9946,13 +10213,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9968,7 +10235,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15101889" y="7310438"/>
+          <a:off x="15101889" y="8501063"/>
           <a:ext cx="1423987" cy="4052887"/>
           <a:chOff x="13044489" y="6357938"/>
           <a:chExt cx="1423987" cy="4052887"/>
@@ -10065,7 +10332,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2018501" cy="328423"/>
@@ -10123,13 +10390,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10180,13 +10447,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>223838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10236,13 +10503,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10360,13 +10627,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10417,13 +10684,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10474,13 +10741,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>673418</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10531,13 +10798,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>650558</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10590,13 +10857,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10656,13 +10923,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10780,13 +11047,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10837,13 +11104,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10961,13 +11228,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>266702</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11018,13 +11285,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11075,13 +11342,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11131,13 +11398,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11187,7 +11454,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1620957" cy="435697"/>
@@ -11249,7 +11516,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2159566" cy="392800"/>
@@ -11311,7 +11578,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1441420" cy="392800"/>
@@ -11373,7 +11640,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1915653" cy="349776"/>
@@ -11451,7 +11718,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1915653" cy="349776"/>
@@ -11525,6 +11792,634 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F483EDDD-AAD8-474D-9695-D912B00C620C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1190625"/>
+          <a:ext cx="3772426" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8AE644-C6AD-48E5-9DB8-6FB7E945CCA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1419225"/>
+          <a:ext cx="2952750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>496326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85658EA8-6CBE-4592-AAB6-FF520BB987D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2381250"/>
+          <a:ext cx="7354326" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>223934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612E01C5-4B25-4D8F-9F7C-B2523EFB52E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2057400" y="3028949"/>
+          <a:ext cx="114300" cy="1481235"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 300000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562915</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225F8DB1-9FC7-4FD7-8F72-BB60AFB88319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2619375"/>
+          <a:ext cx="6735115" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C1B0F1-3779-4467-8EBB-13033E5FE5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="2886075"/>
+          <a:ext cx="2952750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2649511-38FA-4DF3-902B-9EAFA284EDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2057401" y="3067050"/>
+          <a:ext cx="66675" cy="1328838"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 442857"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162713</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385E0C3A-B7CE-4791-A164-F7FF1FF08B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3676650"/>
+          <a:ext cx="5649113" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643B1CD4-4FE6-4EF3-A51E-E0B5780C01F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333624" y="3714750"/>
+          <a:ext cx="2990851" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338828" cy="306879"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F383EA50-3292-4314-A7D2-9A15D86864CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="3648075"/>
+          <a:ext cx="1338828" cy="306879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" i="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>設定しなくてもいい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>229640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAE165C-5AEF-4D4C-BCA6-404079FF6C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="3800475"/>
+          <a:ext cx="276225" cy="1040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11825,15 +12720,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7D4CA-C99F-412A-A57B-86B00F77BD2D}">
-  <dimension ref="B3:S30"/>
+  <dimension ref="B3:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11841,9 +12736,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11851,4 +12800,203 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C178B24-88B0-4C95-8B3E-C3C9D0976385}">
+  <dimension ref="B3:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872C5A0B-CA43-4741-AB85-1218C9D12920}">
+  <dimension ref="B3:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D30" s="6"/>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="6"/>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D34" s="9"/>
+      <c r="E34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D36" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>